--- a/Responsavel.xlsx
+++ b/Responsavel.xlsx
@@ -5,20 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Desktop\GITHUB\GEST-O-DE-FROTAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="1. Responsavel" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Responsavel'!$A$1:$T$200</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1. Responsavel'!$A:$S,'1. Responsavel'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -4229,16 +4228,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="17.5703125" customWidth="1"/>
+    <col min="1" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="17.5703125" customWidth="1"/>
     <col min="20" max="20" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4304,7 +4304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>66</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>97</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>104</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>115</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>124</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>134</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>142</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>150</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>156</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>165</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>174</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>182</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>191</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>201</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>209</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>215</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>223</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>231</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>238</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>248</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>254</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>261</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>267</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>271</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>279</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>284</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>292</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>298</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>310</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>318</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>326</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>333</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>341</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>350</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>359</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>367</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>378</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>384</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>392</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>398</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>404</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>412</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>417</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>422</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>429</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>438</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>442</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>446</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>451</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>460</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>470</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>479</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>485</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>496</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>504</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>509</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>518</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>525</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>532</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>538</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>543</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>550</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>557</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>562</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>569</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>574</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>579</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>587</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>595</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>602</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>608</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>613</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>620</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>625</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>631</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>639</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>642</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>650</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>655</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>663</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>672</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>679</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>684</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>689</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>693</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>698</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>704</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>709</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>716</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>725</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>730</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>734</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>739</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>743</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>749</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>753</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>758</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>763</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>766</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>770</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>774</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>781</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>785</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>788</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>791</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>795</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>799</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>802</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>849</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>855</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>867</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>871</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>873</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>893</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>920</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>924</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>930</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>934</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>951</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>957</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>962</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>966</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>973</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>979</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>984</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>989</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>993</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>997</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>1001</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>1007</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>1015</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>1022</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>1029</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>1036</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>1041</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>1046</v>
       </c>
@@ -14038,7 +14038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>1052</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>1057</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>1061</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>1066</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>1072</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>1077</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>1081</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>1085</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>1091</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>1095</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>1101</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>1105</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>1109</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>1116</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>1120</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>1125</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>1128</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>1130</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>1133</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>1136</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>1139</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>1145</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>1149</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>1153</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>1157</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>1162</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>1167</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>1171</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>1177</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>1189</v>
       </c>
@@ -15960,7 +15960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>1194</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>1199</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>1204</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>1208</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>1211</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>1214</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>1219</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>1224</v>
       </c>
@@ -16456,7 +16456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>1227</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>1231</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>1233</v>
       </c>
@@ -16643,45 +16643,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T200">
-    <filterColumn colId="7">
-      <filters blank="1">
-        <filter val="ADY FERREIRA DA SILVA"/>
-        <filter val="CAIQUE DE OLIVEIRA SOUZA"/>
-        <filter val="ERISON SANT ANA COSTA"/>
-        <filter val="FAGNER FERREIRA DA SILVA"/>
-        <filter val="GEOVANI CASTILHO PEREIRA"/>
-        <filter val="IVAN GOMES DE CARVALHO"/>
-        <filter val="JANNES ANTONIO DIAS DE ARAUJO"/>
-        <filter val="JOSE CARLOS DA COSTA"/>
-        <filter val="JOSE IVANILSON DA SILVA MARCELINO"/>
-        <filter val="LEANDRO BARBOSA SANTANA"/>
-        <filter val="MANOEL MESSIAS DOS SANTOS"/>
-        <filter val="REINALDO SANTOS DANTAS"/>
-        <filter val="RODRIGO JOSE PARANHOS MAIA"/>
-        <filter val="VALDIR JOSE DE GODOY ROBERTO"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="2021"/>
-        <filter val="2022"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="15">
-      <filters>
-        <filter val="CHECK-IN PENDENTE"/>
-        <filter val="CHECK-OUT PENDENTE"/>
-        <filter val="EM USO"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="16">
-      <filters>
-        <filter val="-"/>
-        <filter val="ADMINISTRACAO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.45" footer="0.45"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>

--- a/Responsavel.xlsx
+++ b/Responsavel.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Desktop\GITHUB\GEST-O-DE-FROTAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="1. Responsavel" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Responsavel'!$A$1:$T$200</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1. Responsavel'!$A:$S,'1. Responsavel'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -4228,17 +4229,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="19" width="17.5703125" customWidth="1"/>
+    <col min="1" max="19" width="17.5703125" customWidth="1"/>
     <col min="20" max="20" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4304,7 +4304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>66</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>97</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>104</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>115</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>124</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>134</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>142</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>150</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>156</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>165</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>174</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>182</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>191</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>201</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>209</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>215</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>223</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>231</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>238</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>248</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>254</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>261</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>267</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>271</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>279</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>284</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>292</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>298</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>310</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>318</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>326</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>333</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>341</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>350</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>359</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>367</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>378</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>384</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>392</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>398</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>404</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>412</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>417</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>422</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>429</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>438</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>442</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>446</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>451</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>460</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>470</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>479</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>485</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>496</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>504</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>509</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>518</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>525</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>532</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>538</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>543</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>550</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>557</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>562</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>569</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>574</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>579</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>587</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>595</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>602</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>608</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>613</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>620</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>625</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>631</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>639</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>642</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>650</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>655</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>663</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>672</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>679</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>684</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>689</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>693</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>698</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>704</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>709</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>716</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>725</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>730</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>734</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>739</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>743</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>749</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>753</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>758</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>763</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>766</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>770</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>774</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>781</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>785</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>788</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>791</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>795</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>799</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>802</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>849</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>855</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>867</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>871</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>873</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>893</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>920</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>924</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>930</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>934</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>951</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>957</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>962</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>966</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>973</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>979</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>984</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>989</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>993</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>997</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>1001</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>1007</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>1015</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>1022</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>1029</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>1036</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>1041</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>1046</v>
       </c>
@@ -14038,7 +14038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>1052</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>1057</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>1061</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>1066</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>1072</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>1077</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>1081</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>1085</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>1091</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>1095</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>1101</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>1105</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>1109</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>1116</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>1120</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>1125</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>1128</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>1130</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>1133</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>1136</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>1139</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>1145</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>1149</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>1153</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>1157</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>1162</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>1167</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>1171</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>1177</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>1189</v>
       </c>
@@ -15960,7 +15960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>1194</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>1199</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>1204</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>1208</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>1211</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>1214</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>1219</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>1224</v>
       </c>
@@ -16456,7 +16456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>1227</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>1231</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>1233</v>
       </c>
@@ -16643,6 +16643,45 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T200">
+    <filterColumn colId="7">
+      <filters blank="1">
+        <filter val="ADY FERREIRA DA SILVA"/>
+        <filter val="CAIQUE DE OLIVEIRA SOUZA"/>
+        <filter val="ERISON SANT ANA COSTA"/>
+        <filter val="FAGNER FERREIRA DA SILVA"/>
+        <filter val="GEOVANI CASTILHO PEREIRA"/>
+        <filter val="IVAN GOMES DE CARVALHO"/>
+        <filter val="JANNES ANTONIO DIAS DE ARAUJO"/>
+        <filter val="JOSE CARLOS DA COSTA"/>
+        <filter val="JOSE IVANILSON DA SILVA MARCELINO"/>
+        <filter val="LEANDRO BARBOSA SANTANA"/>
+        <filter val="MANOEL MESSIAS DOS SANTOS"/>
+        <filter val="REINALDO SANTOS DANTAS"/>
+        <filter val="RODRIGO JOSE PARANHOS MAIA"/>
+        <filter val="VALDIR JOSE DE GODOY ROBERTO"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="2021"/>
+        <filter val="2022"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="CHECK-IN PENDENTE"/>
+        <filter val="CHECK-OUT PENDENTE"/>
+        <filter val="EM USO"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="16">
+      <filters>
+        <filter val="-"/>
+        <filter val="ADMINISTRACAO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.45" footer="0.45"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>

--- a/Responsavel.xlsx
+++ b/Responsavel.xlsx
@@ -4232,8 +4232,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+    <sheetView tabSelected="1" topLeftCell="L180" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:T200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7900,7 +7900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>485</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>496</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>504</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>509</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>518</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>525</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>532</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>538</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>543</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>550</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>557</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>562</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>587</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>595</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>602</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>608</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>613</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>620</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>625</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>849</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>871</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>873</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>920</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>924</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>930</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>934</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>951</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>957</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>962</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>966</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>973</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>979</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>984</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>989</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>993</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>997</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>1001</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>1007</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>1015</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>1022</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>1029</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>1036</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>1041</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>1046</v>
       </c>
@@ -14038,7 +14038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>1052</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>1057</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>1061</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>1066</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>1072</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>1077</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>1081</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>1085</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>1091</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>1095</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>1101</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>1105</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>1109</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>1116</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>1120</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>1125</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>1128</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>1130</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>1133</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>1136</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>1139</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>1145</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>1149</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>1153</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>1157</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>1162</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>1167</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>1171</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>1177</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>1189</v>
       </c>
@@ -15960,7 +15960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>1194</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>1199</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>1204</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>1208</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>1211</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>1214</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>1219</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>1224</v>
       </c>
@@ -16456,7 +16456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>1227</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>1231</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>1233</v>
       </c>
@@ -16644,41 +16644,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:T200">
-    <filterColumn colId="7">
-      <filters blank="1">
-        <filter val="ADY FERREIRA DA SILVA"/>
-        <filter val="CAIQUE DE OLIVEIRA SOUZA"/>
-        <filter val="ERISON SANT ANA COSTA"/>
-        <filter val="FAGNER FERREIRA DA SILVA"/>
-        <filter val="GEOVANI CASTILHO PEREIRA"/>
-        <filter val="IVAN GOMES DE CARVALHO"/>
-        <filter val="JANNES ANTONIO DIAS DE ARAUJO"/>
-        <filter val="JOSE CARLOS DA COSTA"/>
-        <filter val="JOSE IVANILSON DA SILVA MARCELINO"/>
-        <filter val="LEANDRO BARBOSA SANTANA"/>
-        <filter val="MANOEL MESSIAS DOS SANTOS"/>
-        <filter val="REINALDO SANTOS DANTAS"/>
-        <filter val="RODRIGO JOSE PARANHOS MAIA"/>
-        <filter val="VALDIR JOSE DE GODOY ROBERTO"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="2021"/>
-        <filter val="2022"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="15">
       <filters>
         <filter val="CHECK-IN PENDENTE"/>
         <filter val="CHECK-OUT PENDENTE"/>
+        <filter val="DISPONÍVEL"/>
         <filter val="EM USO"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="16">
-      <filters>
-        <filter val="-"/>
-        <filter val="ADMINISTRACAO"/>
       </filters>
     </filterColumn>
   </autoFilter>
